--- a/Ksusha/R_Calc_FET/Data/Fet.xlsx
+++ b/Ksusha/R_Calc_FET/Data/Fet.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
   <si>
     <t>Fucoid</t>
@@ -1174,15 +1177,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,2269 +1222,2434 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>67.007092</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>32.577748</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>230</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <f>F2/(F2+G2)*H2</f>
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f>G2/(F2+G2)*H2</f>
+        <f>G2/(G2+H2)*I2</f>
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <f>F2+I2</f>
-        <v>8</v>
+        <f>H2/(G2+H2)*I2</f>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <f>G2+J2</f>
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
+        <f>H2+K2</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
         <v>67.007092</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>32.577748</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>586</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>36</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <f>F3/(F3+G3)*H3</f>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <f>G3/(F3+G3)*H3</f>
+        <f>G3/(G3+H3)*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K34" si="0">F3+I3</f>
+        <f>H3/(G3+H3)*I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L34" si="0">G3+J3</f>
         <v>36</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L34" si="1">G3+J3</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M34" si="1">H3+K3</f>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
         <v>67.007092</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>32.577748</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>269</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I34" si="2">F4/(F4+G4)*H4</f>
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J34" si="3">G4/(F4+G4)*H4</f>
+        <f t="shared" ref="J4:J34" si="2">G4/(G4+H4)*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <f t="shared" ref="K4:K34" si="3">H4/(G4+H4)*I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>67.007092</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>32.577748</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>690</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="D6">
         <v>67.007092</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>32.577748</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>63</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
         <v>67.007092</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>32.577748</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>96</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>67.008026</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>32.589368</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>531</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>121</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>67.008026</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>32.589368</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>522</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>101</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>67.008026</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>32.589368</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>729</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>36</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>64</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>67.008026</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>32.589368</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>625</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>44</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>56</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
         <v>67.008026</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>32.589368</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>328</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>39</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
         <v>67.008026</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>32.589368</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>557</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>76</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
         <v>67.008627</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>32.572286</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>280</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>36</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>65</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
         <v>67.008627</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>32.572286</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>274</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>97</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>67.008627</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>32.572286</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>224</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>40</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>60</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
         <v>67.008627</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>32.572286</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>218</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>45</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>55</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
         <v>67.008627</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>32.572286</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>337</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>58</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>73</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
         <v>67.008627</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>32.572286</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>232</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>93</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>203</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
         <v>67.00671</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>32.570262</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>357</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>53</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>29</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
         <v>67.00671</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>32.570262</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>276</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>102</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>112</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
         <v>67.00671</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>32.570262</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>340</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>26</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
         <v>67.00671</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>32.570262</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>224</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>63</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>59</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
         <v>67.00671</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>32.570262</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>127</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>112</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>48</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
         <v>67.00671</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>32.570262</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>259</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>39</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>44</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
         <v>67.004117</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>32.5759</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>560</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>103</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>72</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
         <v>67.004117</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>32.5759</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>600</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>29</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>37</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
         <v>67.004117</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>32.5759</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>390</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>51</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
         <v>67.004117</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>32.5759</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>360</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>22</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
         <v>67.004117</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>32.5759</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>200</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>21</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
         <v>67.004117</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>32.5759</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>320</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>24</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
         <v>67.02492</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>32.53991</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>520</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>36</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>29</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
         <v>67.02492</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>32.53991</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>480</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>24</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>74</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
         <v>67.02492</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>32.53991</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>360</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>35</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>65</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>61</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
         <v>21.35</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
         <v>39.65</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <f t="shared" si="0"/>
         <v>56.35</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <f t="shared" si="1"/>
         <v>104.65</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
         <v>67.02492</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>32.53991</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>380</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>74</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>33</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ref="I35:I55" si="4">F35/(F35+G35)*H35</f>
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" ref="J35:J55" si="5">G35/(F35+G35)*H35</f>
+        <f t="shared" ref="J35:J55" si="4">G35/(G35+H35)*I35</f>
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K55" si="6">F35+I35</f>
+        <f t="shared" ref="K35:K55" si="5">H35/(G35+H35)*I35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" ref="L35:L55" si="6">G35+J35</f>
         <v>74</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" ref="L35:L55" si="7">G35+J35</f>
+      <c r="M35" s="1">
+        <f t="shared" ref="M35:M55" si="7">H35+K35</f>
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
         <v>67.02492</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>32.53991</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>410</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>26</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>74</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>19</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <f t="shared" si="4"/>
         <v>4.94</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <f t="shared" si="5"/>
         <v>14.06</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <f t="shared" si="6"/>
         <v>30.94</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <f t="shared" si="7"/>
         <v>88.06</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
         <v>67.02492</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>32.53991</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>480</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>43</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>62</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
         <v>67.02832</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>32.531483</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>360</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>43</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>24</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
         <v>67.02832</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>32.531483</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>320</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>42</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>17</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
         <v>67.02832</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>32.531483</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>340</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>28</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>27</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
         <v>67.02832</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>32.531483</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>280</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>46</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>36</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
         <v>67.02832</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>32.531483</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>370</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>44</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>56</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>24</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <f t="shared" si="4"/>
         <v>10.56</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <f t="shared" si="5"/>
         <v>13.44</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <f t="shared" si="6"/>
         <v>54.56</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <f t="shared" si="7"/>
         <v>69.44</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
         <v>67.02832</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>32.531483</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>410</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>51</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>49</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>61</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <f t="shared" si="4"/>
         <v>31.11</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <f t="shared" si="5"/>
         <v>29.89</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <f t="shared" si="6"/>
         <v>82.11</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <f t="shared" si="7"/>
         <v>78.89</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
         <v>66.97143</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>32.570247</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>280</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>34</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>66</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>51</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <f t="shared" si="4"/>
         <v>17.34</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <f t="shared" si="5"/>
         <v>33.66</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <f t="shared" si="6"/>
         <v>51.34</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <f t="shared" si="7"/>
         <v>99.66</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
         <v>66.97143</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>32.570247</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>400</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>23</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>77</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>43</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <f t="shared" si="4"/>
         <v>9.89</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <f t="shared" si="5"/>
         <v>33.11</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <f t="shared" si="6"/>
         <v>32.89</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <f t="shared" si="7"/>
         <v>110.11</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
         <v>66.97143</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>32.570247</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>280</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>36</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>64</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>160</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <f t="shared" si="4"/>
         <v>57.6</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <f t="shared" si="5"/>
         <v>102.4</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <f t="shared" si="6"/>
         <v>93.6</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <f t="shared" si="7"/>
         <v>166.4</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
         <v>66.97143</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>32.570247</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>80</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>32</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>35</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
         <v>66.97143</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>32.570247</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>160</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>30</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>94</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
         <v>66.97143</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>32.570247</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>120</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>63</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>37</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>20</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <f t="shared" si="4"/>
         <v>12.6</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <f t="shared" si="5"/>
         <v>7.4</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <f t="shared" si="6"/>
         <v>75.6</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <f t="shared" si="7"/>
         <v>44.4</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
         <v>66.970009</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>32.572618</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>440</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>37</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>63</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>7</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="4"/>
         <v>2.59</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <f t="shared" si="5"/>
         <v>4.41</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <f t="shared" si="6"/>
         <v>39.59</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <f t="shared" si="7"/>
         <v>67.41</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
         <v>66.970009</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>32.572618</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>500</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>15</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
         <v>66.970009</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>32.572618</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>680</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>6</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>9</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53">
         <v>66.970009</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>32.572618</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>650</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
         <v>66.970009</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>32.572618</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>250</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
       </c>
       <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
         <v>66.970009</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>32.572618</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>360</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>2</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
